--- a/static/Stimul_3_1.xlsx
+++ b/static/Stimul_3_1.xlsx
@@ -341,277 +341,277 @@
     <t>Stimul</t>
   </si>
   <si>
-    <t>static\К1.jpg</t>
-  </si>
-  <si>
-    <t>static\К2.jpg</t>
-  </si>
-  <si>
-    <t>static\К3.jpg</t>
-  </si>
-  <si>
-    <t>static\К7.jpg</t>
-  </si>
-  <si>
-    <t>static\К8.jpg</t>
-  </si>
-  <si>
-    <t>static\К9.jpg</t>
-  </si>
-  <si>
-    <t>static\К10.jpg</t>
-  </si>
-  <si>
-    <t>static\К11.jpg</t>
-  </si>
-  <si>
-    <t>static\К12.jpg</t>
-  </si>
-  <si>
-    <t>static\К16.jpg</t>
-  </si>
-  <si>
-    <t>static\К17.jpg</t>
-  </si>
-  <si>
-    <t>static\К18.jpg</t>
-  </si>
-  <si>
-    <t>static\К19.jpg</t>
-  </si>
-  <si>
-    <t>static\К20.jpg</t>
-  </si>
-  <si>
-    <t>static\К21.jpg</t>
-  </si>
-  <si>
-    <t>static\К22.jpg</t>
-  </si>
-  <si>
-    <t>static\К23.jpg</t>
-  </si>
-  <si>
-    <t>static\К24.jpg</t>
-  </si>
-  <si>
-    <t>static\К25.jpg</t>
-  </si>
-  <si>
-    <t>static\К26.jpg</t>
-  </si>
-  <si>
-    <t>static\К27.jpg</t>
-  </si>
-  <si>
-    <t>static\К28.jpg</t>
-  </si>
-  <si>
-    <t>static\К29.jpg</t>
-  </si>
-  <si>
-    <t>static\К33.jpg</t>
-  </si>
-  <si>
-    <t>static\К34.jpg</t>
-  </si>
-  <si>
-    <t>static\К35.jpg</t>
-  </si>
-  <si>
-    <t>static\К36.jpg</t>
-  </si>
-  <si>
-    <t>static\К37.jpg</t>
-  </si>
-  <si>
-    <t>static\К38.jpg</t>
-  </si>
-  <si>
-    <t>static\К40.jpg</t>
-  </si>
-  <si>
-    <t>static\К41.jpg</t>
-  </si>
-  <si>
-    <t>static\К42.jpg</t>
-  </si>
-  <si>
-    <t>static\К43.jpg</t>
-  </si>
-  <si>
-    <t>static\К44.jpg</t>
-  </si>
-  <si>
-    <t>static\К45.jpg</t>
-  </si>
-  <si>
-    <t>static\К46.jpg</t>
-  </si>
-  <si>
-    <t>static\К47.jpg</t>
-  </si>
-  <si>
-    <t>static\К48.jpg</t>
-  </si>
-  <si>
-    <t>static\К49.jpg</t>
-  </si>
-  <si>
-    <t>static\К50.jpg</t>
-  </si>
-  <si>
-    <t>static\К51.jpg</t>
-  </si>
-  <si>
-    <t>static\К52.jpg</t>
-  </si>
-  <si>
-    <t>static\К53.jpg</t>
-  </si>
-  <si>
-    <t>static\К54.jpg</t>
-  </si>
-  <si>
-    <t>static\К55.jpg</t>
-  </si>
-  <si>
-    <t>static\К56.jpg</t>
-  </si>
-  <si>
-    <t>static\К57.jpg</t>
-  </si>
-  <si>
-    <t>static\К58.jpg</t>
-  </si>
-  <si>
-    <t>static\К59.jpg</t>
-  </si>
-  <si>
-    <t>static\К60.jpg</t>
-  </si>
-  <si>
-    <t>static\К61.jpg</t>
-  </si>
-  <si>
-    <t>static\К62.jpg</t>
-  </si>
-  <si>
-    <t>static\К63.jpg</t>
-  </si>
-  <si>
-    <t>static\К64.jpg</t>
-  </si>
-  <si>
-    <t>static\К65.jpg</t>
-  </si>
-  <si>
-    <t>static\К66.jpg</t>
-  </si>
-  <si>
-    <t>static\К67.jpg</t>
-  </si>
-  <si>
-    <t>static\К68.jpg</t>
-  </si>
-  <si>
-    <t>static\К69.jpg</t>
-  </si>
-  <si>
-    <t>static\К70.jpg</t>
-  </si>
-  <si>
-    <t>static\К71.jpg</t>
-  </si>
-  <si>
-    <t>static\К72.jpg</t>
-  </si>
-  <si>
-    <t>static\К73.jpg</t>
-  </si>
-  <si>
-    <t>static\К74.jpg</t>
-  </si>
-  <si>
-    <t>static\К75.jpg</t>
-  </si>
-  <si>
-    <t>static\К76.jpg</t>
-  </si>
-  <si>
-    <t>static\К77.jpg</t>
-  </si>
-  <si>
-    <t>static\К78.jpg</t>
-  </si>
-  <si>
-    <t>static\К79.jpg</t>
-  </si>
-  <si>
-    <t>static\К80.jpg</t>
-  </si>
-  <si>
-    <t>static\К81.jpg</t>
-  </si>
-  <si>
-    <t>static\К82.jpg</t>
-  </si>
-  <si>
-    <t>static\К83.jpg</t>
-  </si>
-  <si>
-    <t>static\К84.jpg</t>
-  </si>
-  <si>
-    <t>static\К85.jpg</t>
-  </si>
-  <si>
-    <t>static\К86.jpg</t>
-  </si>
-  <si>
-    <t>static\К87.jpg</t>
-  </si>
-  <si>
-    <t>static\К88.jpg</t>
-  </si>
-  <si>
-    <t>static\К89.jpg</t>
-  </si>
-  <si>
-    <t>static\К90.jpg</t>
-  </si>
-  <si>
-    <t>static\К91.jpg</t>
-  </si>
-  <si>
-    <t>static\К92.jpg</t>
-  </si>
-  <si>
-    <t>static\К93.jpg</t>
-  </si>
-  <si>
-    <t>static\К94.jpg</t>
-  </si>
-  <si>
-    <t>static\К95.jpg</t>
-  </si>
-  <si>
-    <t>static\К96.jpg</t>
-  </si>
-  <si>
-    <t>static\К97.jpg</t>
-  </si>
-  <si>
-    <t>static\К98.jpg</t>
-  </si>
-  <si>
-    <t>static\К99.jpg</t>
-  </si>
-  <si>
-    <t>static\К100.jpg</t>
-  </si>
-  <si>
-    <t>static\К101.jpg</t>
+    <t>..\static\К1.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К2.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К3.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К7.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К8.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К9.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К10.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К11.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К12.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К16.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К17.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К18.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К19.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К20.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К21.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К22.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К23.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К24.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К25.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К26.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К27.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К28.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К29.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К33.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К34.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К35.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К36.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К37.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К38.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К40.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К41.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К42.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К43.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К44.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К45.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К46.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К47.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К48.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К49.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К50.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К51.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К52.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К53.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К54.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К55.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К56.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К57.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К58.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К59.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К60.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К61.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К62.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К63.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К64.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К65.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К66.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К67.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К68.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К69.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К70.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К71.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К72.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К73.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К74.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К75.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К76.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К77.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К78.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К79.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К80.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К81.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К82.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К83.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К84.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К85.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К86.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К87.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К88.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К89.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К90.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К91.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К92.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К93.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К94.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К95.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К96.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К97.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К98.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К99.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К100.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К101.jpg</t>
   </si>
 </sst>
 </file>
@@ -944,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93:B101"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2063,47 +2063,47 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B42" r:id="rId1" display="https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A52.jpg?raw=true"/>
-    <hyperlink ref="B3" r:id="rId2" display="К2"/>
-    <hyperlink ref="B4" r:id="rId3" display="К3"/>
-    <hyperlink ref="B2" r:id="rId4"/>
-    <hyperlink ref="B5" r:id="rId5" display="К7"/>
-    <hyperlink ref="B6" r:id="rId6" display="К8"/>
-    <hyperlink ref="B7" r:id="rId7" display="К9"/>
-    <hyperlink ref="B8" r:id="rId8" display="К10"/>
-    <hyperlink ref="B9" r:id="rId9" display="К11"/>
-    <hyperlink ref="B10" r:id="rId10" display="К12"/>
-    <hyperlink ref="B11" r:id="rId11" display="К16"/>
-    <hyperlink ref="B12" r:id="rId12" display="К17"/>
-    <hyperlink ref="B13" r:id="rId13" display="К18"/>
-    <hyperlink ref="B14" r:id="rId14" display="К19"/>
-    <hyperlink ref="B15" r:id="rId15" display="К20"/>
-    <hyperlink ref="B16" r:id="rId16" display="К21"/>
-    <hyperlink ref="B17" r:id="rId17" display="К22"/>
-    <hyperlink ref="B18" r:id="rId18" display="К23"/>
-    <hyperlink ref="B19" r:id="rId19" display="К24"/>
-    <hyperlink ref="B20" r:id="rId20" display="К25"/>
-    <hyperlink ref="B21" r:id="rId21" display="К26"/>
-    <hyperlink ref="B22" r:id="rId22" display="К27"/>
-    <hyperlink ref="B23" r:id="rId23" display="К28"/>
-    <hyperlink ref="B24" r:id="rId24" display="К29"/>
-    <hyperlink ref="B25" r:id="rId25" display="К33"/>
-    <hyperlink ref="B26" r:id="rId26" display="К34"/>
-    <hyperlink ref="B27" r:id="rId27" display="К35"/>
-    <hyperlink ref="B28" r:id="rId28" display="К36"/>
-    <hyperlink ref="B29" r:id="rId29" display="К37"/>
-    <hyperlink ref="B30" r:id="rId30" display="К38"/>
-    <hyperlink ref="B31" r:id="rId31" display="К40"/>
-    <hyperlink ref="B32" r:id="rId32" display="К41"/>
-    <hyperlink ref="B33" r:id="rId33" display="К42"/>
-    <hyperlink ref="B34" r:id="rId34" display="К43"/>
-    <hyperlink ref="B35" r:id="rId35" display="К44"/>
-    <hyperlink ref="B36" r:id="rId36" display="К45"/>
-    <hyperlink ref="B37" r:id="rId37" display="К46"/>
-    <hyperlink ref="B38" r:id="rId38" display="К47"/>
-    <hyperlink ref="B39" r:id="rId39" display="К48"/>
-    <hyperlink ref="B40" r:id="rId40" display="К49"/>
-    <hyperlink ref="B41" r:id="rId41" display="К50"/>
+    <hyperlink ref="B3" r:id="rId1" display="К2"/>
+    <hyperlink ref="B4" r:id="rId2" display="К3"/>
+    <hyperlink ref="B2" r:id="rId3" display="static\К1.jpg"/>
+    <hyperlink ref="B5" r:id="rId4" display="К7"/>
+    <hyperlink ref="B6" r:id="rId5" display="К8"/>
+    <hyperlink ref="B7" r:id="rId6" display="К9"/>
+    <hyperlink ref="B8" r:id="rId7" display="К10"/>
+    <hyperlink ref="B9" r:id="rId8" display="К11"/>
+    <hyperlink ref="B10" r:id="rId9" display="К12"/>
+    <hyperlink ref="B11" r:id="rId10" display="К16"/>
+    <hyperlink ref="B12" r:id="rId11" display="К17"/>
+    <hyperlink ref="B13" r:id="rId12" display="К18"/>
+    <hyperlink ref="B14" r:id="rId13" display="К19"/>
+    <hyperlink ref="B15" r:id="rId14" display="К20"/>
+    <hyperlink ref="B16" r:id="rId15" display="К21"/>
+    <hyperlink ref="B17" r:id="rId16" display="К22"/>
+    <hyperlink ref="B18" r:id="rId17" display="К23"/>
+    <hyperlink ref="B19" r:id="rId18" display="К24"/>
+    <hyperlink ref="B20" r:id="rId19" display="К25"/>
+    <hyperlink ref="B21" r:id="rId20" display="К26"/>
+    <hyperlink ref="B22" r:id="rId21" display="К27"/>
+    <hyperlink ref="B23" r:id="rId22" display="К28"/>
+    <hyperlink ref="B24" r:id="rId23" display="К29"/>
+    <hyperlink ref="B25" r:id="rId24" display="К33"/>
+    <hyperlink ref="B26" r:id="rId25" display="К34"/>
+    <hyperlink ref="B27" r:id="rId26" display="К35"/>
+    <hyperlink ref="B28" r:id="rId27" display="К36"/>
+    <hyperlink ref="B29" r:id="rId28" display="К37"/>
+    <hyperlink ref="B30" r:id="rId29" display="К38"/>
+    <hyperlink ref="B31" r:id="rId30" display="К40"/>
+    <hyperlink ref="B32" r:id="rId31" display="К41"/>
+    <hyperlink ref="B33" r:id="rId32" display="К42"/>
+    <hyperlink ref="B34" r:id="rId33" display="К43"/>
+    <hyperlink ref="B35" r:id="rId34" display="К44"/>
+    <hyperlink ref="B36" r:id="rId35" display="К45"/>
+    <hyperlink ref="B37" r:id="rId36" display="К46"/>
+    <hyperlink ref="B38" r:id="rId37" display="К47"/>
+    <hyperlink ref="B39" r:id="rId38" display="К48"/>
+    <hyperlink ref="B40" r:id="rId39" display="К49"/>
+    <hyperlink ref="B41" r:id="rId40" display="К50"/>
+    <hyperlink ref="B42" r:id="rId41" display="https://github.com/nastycify/ColorDotsExperiment5/blob/master/static/%D0%9A52.jpg?raw=true"/>
     <hyperlink ref="B44" r:id="rId42" display="К53"/>
     <hyperlink ref="B45" r:id="rId43" display="К54"/>
     <hyperlink ref="B46" r:id="rId44" display="К55"/>
